--- a/contratos/contratos-9-2011.xlsx
+++ b/contratos/contratos-9-2011.xlsx
@@ -400,10 +400,10 @@
     <t>DUARTE EDMUNDO ALCIDES</t>
   </si>
   <si>
-    <t>FERNANDEZ MARIO H, GALLICET OSCAR M</t>
-  </si>
-  <si>
-    <t>IZAGUIRRE CARLOS MARIA, MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
+    <t>FERNANDEZ MARIO H. GALLICET OSCAR M</t>
+  </si>
+  <si>
+    <t>IZAGUIRRE CARLOS MARIA. MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
   </si>
   <si>
     <t>OLIVERA JOSE PEDRO</t>
@@ -442,7 +442,7 @@
     <t>CHARRIERE MARY MABEL</t>
   </si>
   <si>
-    <t>GIMENEZ, ROBERTO ADRIAN</t>
+    <t>GIMENEZ. ROBERTO ADRIAN</t>
   </si>
   <si>
     <t>NICHAJEW VLADIMIR ALEJANDRO</t>
@@ -646,223 +646,223 @@
     <t>37</t>
   </si>
   <si>
-    <t>2.725,00</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>1.267,82</t>
-  </si>
-  <si>
-    <t>1.070,00</t>
-  </si>
-  <si>
-    <t>2.090,00</t>
-  </si>
-  <si>
-    <t>75.950,00</t>
-  </si>
-  <si>
-    <t>172.590,19</t>
-  </si>
-  <si>
-    <t>12.652,50</t>
-  </si>
-  <si>
-    <t>19.799,94</t>
-  </si>
-  <si>
-    <t>5.613,75</t>
-  </si>
-  <si>
-    <t>99,40</t>
-  </si>
-  <si>
-    <t>8.277,11</t>
-  </si>
-  <si>
-    <t>8.492,65</t>
-  </si>
-  <si>
-    <t>1.819,00</t>
-  </si>
-  <si>
-    <t>6.342,16</t>
-  </si>
-  <si>
-    <t>929,04</t>
-  </si>
-  <si>
-    <t>1.195,00</t>
-  </si>
-  <si>
-    <t>18.566,40</t>
-  </si>
-  <si>
-    <t>624,00</t>
-  </si>
-  <si>
-    <t>4.040,00</t>
-  </si>
-  <si>
-    <t>3.600,00</t>
-  </si>
-  <si>
-    <t>162,35</t>
-  </si>
-  <si>
-    <t>70,00</t>
-  </si>
-  <si>
-    <t>2.620,00</t>
-  </si>
-  <si>
-    <t>340,00</t>
-  </si>
-  <si>
-    <t>273,73</t>
-  </si>
-  <si>
-    <t>44.975,00</t>
-  </si>
-  <si>
-    <t>37.128,00</t>
-  </si>
-  <si>
-    <t>160,00</t>
-  </si>
-  <si>
-    <t>1.192,50</t>
-  </si>
-  <si>
-    <t>15.432,00</t>
-  </si>
-  <si>
-    <t>952,00</t>
-  </si>
-  <si>
-    <t>1.638,00</t>
-  </si>
-  <si>
-    <t>3.165,52</t>
-  </si>
-  <si>
-    <t>206,00</t>
-  </si>
-  <si>
-    <t>50,00</t>
-  </si>
-  <si>
-    <t>99.951,77</t>
-  </si>
-  <si>
-    <t>179,45</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>623,29</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>1.862,00</t>
-  </si>
-  <si>
-    <t>179,60</t>
-  </si>
-  <si>
-    <t>38,40</t>
-  </si>
-  <si>
-    <t>3.352,00</t>
-  </si>
-  <si>
-    <t>2.200,00</t>
-  </si>
-  <si>
-    <t>1.525,93</t>
-  </si>
-  <si>
-    <t>330,50</t>
-  </si>
-  <si>
-    <t>3.200,00</t>
-  </si>
-  <si>
-    <t>250,00</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>420,00</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>950,00</t>
-  </si>
-  <si>
-    <t>2.540,00</t>
-  </si>
-  <si>
-    <t>400,00</t>
-  </si>
-  <si>
-    <t>750,00</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>714,00</t>
-  </si>
-  <si>
-    <t>32,30</t>
-  </si>
-  <si>
-    <t>7.392,00</t>
-  </si>
-  <si>
-    <t>706,82</t>
-  </si>
-  <si>
-    <t>274,00</t>
-  </si>
-  <si>
-    <t>8.334,20</t>
-  </si>
-  <si>
-    <t>4.065,00</t>
-  </si>
-  <si>
-    <t>2.892,62</t>
-  </si>
-  <si>
-    <t>849,42</t>
-  </si>
-  <si>
-    <t>68.750,00</t>
-  </si>
-  <si>
-    <t>136.468,80</t>
-  </si>
-  <si>
-    <t>321.346,05</t>
-  </si>
-  <si>
-    <t>17.000,00</t>
-  </si>
-  <si>
-    <t>33.300,00</t>
-  </si>
-  <si>
-    <t>40.000,00</t>
+    <t>2725.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>1267.82</t>
+  </si>
+  <si>
+    <t>1070.00</t>
+  </si>
+  <si>
+    <t>2090.00</t>
+  </si>
+  <si>
+    <t>75950.00</t>
+  </si>
+  <si>
+    <t>172590.19</t>
+  </si>
+  <si>
+    <t>12652.50</t>
+  </si>
+  <si>
+    <t>19799.94</t>
+  </si>
+  <si>
+    <t>5613.75</t>
+  </si>
+  <si>
+    <t>99.40</t>
+  </si>
+  <si>
+    <t>8277.11</t>
+  </si>
+  <si>
+    <t>8492.65</t>
+  </si>
+  <si>
+    <t>1819.00</t>
+  </si>
+  <si>
+    <t>6342.16</t>
+  </si>
+  <si>
+    <t>929.04</t>
+  </si>
+  <si>
+    <t>1195.00</t>
+  </si>
+  <si>
+    <t>18566.40</t>
+  </si>
+  <si>
+    <t>624.00</t>
+  </si>
+  <si>
+    <t>4040.00</t>
+  </si>
+  <si>
+    <t>3600.00</t>
+  </si>
+  <si>
+    <t>162.35</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>2620.00</t>
+  </si>
+  <si>
+    <t>340.00</t>
+  </si>
+  <si>
+    <t>273.73</t>
+  </si>
+  <si>
+    <t>44975.00</t>
+  </si>
+  <si>
+    <t>37128.00</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>1192.50</t>
+  </si>
+  <si>
+    <t>15432.00</t>
+  </si>
+  <si>
+    <t>952.00</t>
+  </si>
+  <si>
+    <t>1638.00</t>
+  </si>
+  <si>
+    <t>3165.52</t>
+  </si>
+  <si>
+    <t>206.00</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>99951.77</t>
+  </si>
+  <si>
+    <t>179.45</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>623.29</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>1862.00</t>
+  </si>
+  <si>
+    <t>179.60</t>
+  </si>
+  <si>
+    <t>38.40</t>
+  </si>
+  <si>
+    <t>3352.00</t>
+  </si>
+  <si>
+    <t>2200.00</t>
+  </si>
+  <si>
+    <t>1525.93</t>
+  </si>
+  <si>
+    <t>330.50</t>
+  </si>
+  <si>
+    <t>3200.00</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>420.00</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>950.00</t>
+  </si>
+  <si>
+    <t>2540.00</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>750.00</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>714.00</t>
+  </si>
+  <si>
+    <t>32.30</t>
+  </si>
+  <si>
+    <t>7392.00</t>
+  </si>
+  <si>
+    <t>706.82</t>
+  </si>
+  <si>
+    <t>274.00</t>
+  </si>
+  <si>
+    <t>8334.20</t>
+  </si>
+  <si>
+    <t>4065.00</t>
+  </si>
+  <si>
+    <t>2892.62</t>
+  </si>
+  <si>
+    <t>849.42</t>
+  </si>
+  <si>
+    <t>68750.00</t>
+  </si>
+  <si>
+    <t>136468.80</t>
+  </si>
+  <si>
+    <t>321346.05</t>
+  </si>
+  <si>
+    <t>17000.00</t>
+  </si>
+  <si>
+    <t>33300.00</t>
+  </si>
+  <si>
+    <t>40000.00</t>
   </si>
 </sst>
 </file>
